--- a/inputs/data_raw/Data_CalPERS_Decrements_ES2017.xlsx
+++ b/inputs/data_raw/Data_CalPERS_Decrements_ES2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_CalPERS\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAFC3B5-A40F-4ADF-B10C-E2DE2C101984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3FE71F-C7F0-44FB-B585-B4913E712208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="servRet_misc_classic" sheetId="2" r:id="rId1"/>
@@ -1126,18 +1126,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1218,6 +1206,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2288,7 +2288,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,15 +2330,15 @@
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -3059,7 +3059,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3094,21 +3094,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="67">
@@ -3474,21 +3474,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="61">
@@ -3816,14 +3816,14 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="112" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3857,7 +3857,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="113"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="70"/>
       <c r="E5" s="71"/>
       <c r="F5" s="71"/>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="113"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="73">
         <v>20</v>
       </c>
@@ -3897,7 +3897,7 @@
       <c r="B7" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="110" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="101">
@@ -3926,7 +3926,7 @@
       <c r="B8" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="111" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="77">
@@ -3955,7 +3955,7 @@
       <c r="B9" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="111" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="77">
@@ -3984,7 +3984,7 @@
       <c r="B10" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="111" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="77">
@@ -4013,7 +4013,7 @@
       <c r="B11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="111" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="77">
@@ -4042,7 +4042,7 @@
       <c r="B12" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="111" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="77">
@@ -4071,7 +4071,7 @@
       <c r="B13" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="111" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="77">
@@ -4100,7 +4100,7 @@
       <c r="B14" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="111" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="77">
@@ -4129,7 +4129,7 @@
       <c r="B15" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="111" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="77">
@@ -4167,8 +4167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14464AF3-9B21-44B6-B623-CACA21D0F8AE}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="111"/>
+      <c r="C5" s="107"/>
       <c r="D5" s="70"/>
       <c r="E5" s="71"/>
       <c r="F5" s="71"/>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="111"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="73">
         <v>20</v>
       </c>
@@ -4399,7 +4399,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4437,33 +4437,33 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="108" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="116"/>
-      <c r="C6" s="117" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="119">
+      <c r="D6" s="115">
         <v>20</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="115">
         <v>30</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="115">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="118">
+      <c r="C7" s="114">
         <v>0</v>
       </c>
       <c r="D7" s="91">
@@ -4477,7 +4477,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="118">
+      <c r="C8" s="114">
         <v>5</v>
       </c>
       <c r="D8" s="91">
@@ -4491,7 +4491,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="118">
+      <c r="C9" s="114">
         <v>10</v>
       </c>
       <c r="D9" s="91">
@@ -4505,7 +4505,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="118">
+      <c r="C10" s="114">
         <v>15</v>
       </c>
       <c r="D10" s="91">
@@ -4519,7 +4519,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="118">
+      <c r="C11" s="114">
         <v>20</v>
       </c>
       <c r="D11" s="91">
@@ -4533,7 +4533,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="118">
+      <c r="C12" s="114">
         <v>25</v>
       </c>
       <c r="D12" s="91">
@@ -4547,7 +4547,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="118">
+      <c r="C13" s="114">
         <v>30</v>
       </c>
       <c r="D13" s="91">
@@ -4561,7 +4561,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="118">
+      <c r="C14" s="114">
         <v>35</v>
       </c>
       <c r="D14" s="91">
@@ -4575,7 +4575,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="118">
+      <c r="C15" s="114">
         <v>40</v>
       </c>
       <c r="D15" s="91">
@@ -4589,7 +4589,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="118">
+      <c r="C16" s="114">
         <v>45</v>
       </c>
       <c r="D16" s="91">
@@ -4603,7 +4603,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="118">
+      <c r="C17" s="114">
         <v>50</v>
       </c>
       <c r="D17" s="91">
@@ -4633,7 +4633,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4672,26 +4672,26 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="119">
+      <c r="D6" s="115">
         <v>20</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="115">
         <v>30</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="115">
         <v>40</v>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4922,16 +4922,16 @@
       <c r="C6" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="E6" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="118" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5167,35 +5167,35 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="119">
+      <c r="D6" s="115">
         <v>20</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="115">
         <v>30</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="115">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="118">
+      <c r="C7" s="114">
         <v>0</v>
       </c>
       <c r="D7" s="94" t="s">
@@ -5209,7 +5209,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="118">
+      <c r="C8" s="114">
         <v>5</v>
       </c>
       <c r="D8" s="91">
@@ -5223,7 +5223,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="118">
+      <c r="C9" s="114">
         <v>10</v>
       </c>
       <c r="D9" s="91">
@@ -5237,7 +5237,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="118">
+      <c r="C10" s="114">
         <v>15</v>
       </c>
       <c r="D10" s="91">
@@ -5251,7 +5251,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="118">
+      <c r="C11" s="114">
         <v>20</v>
       </c>
       <c r="D11" s="91">
@@ -5265,7 +5265,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="118">
+      <c r="C12" s="114">
         <v>25</v>
       </c>
       <c r="D12" s="91">
@@ -5279,7 +5279,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="118">
+      <c r="C13" s="114">
         <v>30</v>
       </c>
       <c r="D13" s="91">
@@ -5293,7 +5293,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="118">
+      <c r="C14" s="114">
         <v>35</v>
       </c>
       <c r="D14" s="91">
@@ -5307,7 +5307,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="118">
+      <c r="C15" s="114">
         <v>40</v>
       </c>
       <c r="D15" s="94" t="s">
@@ -5321,7 +5321,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="118">
+      <c r="C16" s="114">
         <v>45</v>
       </c>
       <c r="D16" s="94" t="s">
@@ -5335,7 +5335,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="118">
+      <c r="C17" s="114">
         <v>50</v>
       </c>
       <c r="D17" s="94" t="s">
@@ -5364,7 +5364,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5400,26 +5400,26 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="119">
+      <c r="D6" s="115">
         <v>20</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="115">
         <v>30</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="115">
         <v>40</v>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5628,31 +5628,31 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="119">
+      <c r="D6" s="115">
         <v>20</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="115">
         <v>30</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="115">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="118">
+      <c r="C7" s="114">
         <v>0</v>
       </c>
       <c r="D7" s="94" t="s">
@@ -5666,7 +5666,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="118">
+      <c r="C8" s="114">
         <v>5</v>
       </c>
       <c r="D8" s="91">
@@ -5680,7 +5680,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="118">
+      <c r="C9" s="114">
         <v>10</v>
       </c>
       <c r="D9" s="91">
@@ -5694,7 +5694,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="118">
+      <c r="C10" s="114">
         <v>15</v>
       </c>
       <c r="D10" s="91">
@@ -5708,7 +5708,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="118">
+      <c r="C11" s="114">
         <v>20</v>
       </c>
       <c r="D11" s="91">
@@ -5722,7 +5722,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="118">
+      <c r="C12" s="114">
         <v>25</v>
       </c>
       <c r="D12" s="91">
@@ -5736,7 +5736,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="118">
+      <c r="C13" s="114">
         <v>30</v>
       </c>
       <c r="D13" s="94" t="s">
@@ -5750,7 +5750,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="118">
+      <c r="C14" s="114">
         <v>35</v>
       </c>
       <c r="D14" s="94" t="s">
@@ -5764,7 +5764,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="118">
+      <c r="C15" s="114">
         <v>40</v>
       </c>
       <c r="D15" s="94" t="s">
@@ -5778,7 +5778,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="118">
+      <c r="C16" s="114">
         <v>45</v>
       </c>
       <c r="D16" s="94" t="s">
@@ -5792,7 +5792,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="118">
+      <c r="C17" s="114">
         <v>50</v>
       </c>
       <c r="D17" s="94" t="s">
@@ -5856,21 +5856,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="13">
@@ -6588,7 +6588,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6623,7 +6623,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="119" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="90" t="s">
@@ -6637,21 +6637,21 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="E6" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="120" t="s">
+      <c r="F6" s="116" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="118">
+      <c r="C7" s="114">
         <v>0</v>
       </c>
       <c r="D7" s="94" t="s">
@@ -6665,7 +6665,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="118">
+      <c r="C8" s="114">
         <v>5</v>
       </c>
       <c r="D8" s="91">
@@ -6679,7 +6679,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="118">
+      <c r="C9" s="114">
         <v>10</v>
       </c>
       <c r="D9" s="91">
@@ -6693,7 +6693,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="118">
+      <c r="C10" s="114">
         <v>15</v>
       </c>
       <c r="D10" s="91">
@@ -6707,7 +6707,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="118">
+      <c r="C11" s="114">
         <v>20</v>
       </c>
       <c r="D11" s="91">
@@ -6721,7 +6721,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="118">
+      <c r="C12" s="114">
         <v>25</v>
       </c>
       <c r="D12" s="91">
@@ -6735,7 +6735,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="118">
+      <c r="C13" s="114">
         <v>30</v>
       </c>
       <c r="D13" s="91">
@@ -6749,7 +6749,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="118">
+      <c r="C14" s="114">
         <v>35</v>
       </c>
       <c r="D14" s="94" t="s">
@@ -6763,7 +6763,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="118">
+      <c r="C15" s="114">
         <v>40</v>
       </c>
       <c r="D15" s="94" t="s">
@@ -6777,7 +6777,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="118">
+      <c r="C16" s="114">
         <v>45</v>
       </c>
       <c r="D16" s="94" t="s">
@@ -6791,7 +6791,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="118">
+      <c r="C17" s="114">
         <v>50</v>
       </c>
       <c r="D17" s="94" t="s">
@@ -6866,13 +6866,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="118" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7032,7 +7032,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7081,13 +7081,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="118" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7247,7 +7247,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7286,62 +7286,62 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131" t="s">
+      <c r="E5" s="127"/>
+      <c r="F5" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131" t="s">
+      <c r="G5" s="127"/>
+      <c r="H5" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="131"/>
+      <c r="I5" s="127"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="128" t="s">
+      <c r="E6" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="130" t="s">
+      <c r="F6" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H6" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="128" t="s">
+      <c r="I6" s="124" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="122" t="s">
+      <c r="I7" s="118" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7352,19 +7352,19 @@
       <c r="D8" s="77">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E8" s="121">
         <v>2.2000000000000001E-4</v>
       </c>
       <c r="F8" s="77">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="G8" s="125">
+      <c r="G8" s="121">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="H8" s="126">
+      <c r="H8" s="122">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="I8" s="125">
+      <c r="I8" s="121">
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
@@ -7375,19 +7375,19 @@
       <c r="D9" s="77">
         <v>1.1E-4</v>
       </c>
-      <c r="E9" s="125">
+      <c r="E9" s="121">
         <v>2.9E-4</v>
       </c>
       <c r="F9" s="77">
         <v>1.1E-4</v>
       </c>
-      <c r="G9" s="125">
+      <c r="G9" s="121">
         <v>2.9E-4</v>
       </c>
-      <c r="H9" s="126">
+      <c r="H9" s="122">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="I9" s="125">
+      <c r="I9" s="121">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
@@ -7398,19 +7398,19 @@
       <c r="D10" s="77">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="E10" s="125">
+      <c r="E10" s="121">
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="F10" s="77">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="G10" s="125">
+      <c r="G10" s="121">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="H10" s="126">
+      <c r="H10" s="122">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="I10" s="125">
+      <c r="I10" s="121">
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
@@ -7421,19 +7421,19 @@
       <c r="D11" s="77">
         <v>2.7E-4</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="121">
         <v>4.8999999999999998E-4</v>
       </c>
       <c r="F11" s="77">
         <v>2.7E-4</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="121">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="H11" s="126">
+      <c r="H11" s="122">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="I11" s="125">
+      <c r="I11" s="121">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
@@ -7444,19 +7444,19 @@
       <c r="D12" s="77">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="E12" s="125">
+      <c r="E12" s="121">
         <v>6.4000000000000005E-4</v>
       </c>
       <c r="F12" s="77">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="G12" s="125">
+      <c r="G12" s="121">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="H12" s="126">
+      <c r="H12" s="122">
         <v>1E-4</v>
       </c>
-      <c r="I12" s="125">
+      <c r="I12" s="121">
         <v>1E-4</v>
       </c>
     </row>
@@ -7467,19 +7467,19 @@
       <c r="D13" s="77">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E13" s="121">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="F13" s="77">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="G13" s="125">
+      <c r="G13" s="121">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="H13" s="126">
+      <c r="H13" s="122">
         <v>1.2E-4</v>
       </c>
-      <c r="I13" s="125">
+      <c r="I13" s="121">
         <v>1.2E-4</v>
       </c>
     </row>
@@ -7490,19 +7490,19 @@
       <c r="D14" s="77">
         <v>3.46E-3</v>
       </c>
-      <c r="E14" s="125">
+      <c r="E14" s="121">
         <v>3.7200000000000002E-3</v>
       </c>
       <c r="F14" s="77">
         <v>1.0829999999999999E-2</v>
       </c>
-      <c r="G14" s="125">
+      <c r="G14" s="121">
         <v>1.183E-2</v>
       </c>
-      <c r="H14" s="126">
+      <c r="H14" s="122">
         <v>3.46E-3</v>
       </c>
-      <c r="I14" s="125">
+      <c r="I14" s="121">
         <v>3.7200000000000002E-3</v>
       </c>
     </row>
@@ -7513,19 +7513,19 @@
       <c r="D15" s="77">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="E15" s="125">
+      <c r="E15" s="121">
         <v>4.3699999999999998E-3</v>
       </c>
       <c r="F15" s="77">
         <v>1.1780000000000001E-2</v>
       </c>
-      <c r="G15" s="125">
+      <c r="G15" s="121">
         <v>1.6129999999999999E-2</v>
       </c>
-      <c r="H15" s="126">
+      <c r="H15" s="122">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="I15" s="125">
+      <c r="I15" s="121">
         <v>4.3699999999999998E-3</v>
       </c>
     </row>
@@ -7536,19 +7536,19 @@
       <c r="D16" s="77">
         <v>4.7600000000000003E-3</v>
       </c>
-      <c r="E16" s="125">
+      <c r="E16" s="121">
         <v>6.7099999999999998E-3</v>
       </c>
       <c r="F16" s="77">
         <v>1.404E-2</v>
       </c>
-      <c r="G16" s="125">
+      <c r="G16" s="121">
         <v>2.1659999999999999E-2</v>
       </c>
-      <c r="H16" s="126">
+      <c r="H16" s="122">
         <v>4.7600000000000003E-3</v>
       </c>
-      <c r="I16" s="125">
+      <c r="I16" s="121">
         <v>6.7099999999999998E-3</v>
       </c>
     </row>
@@ -7559,19 +7559,19 @@
       <c r="D17" s="77">
         <v>6.3699999999999998E-3</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="121">
         <v>9.2800000000000001E-3</v>
       </c>
       <c r="F17" s="77">
         <v>1.7569999999999999E-2</v>
       </c>
-      <c r="G17" s="125">
+      <c r="G17" s="121">
         <v>2.733E-2</v>
       </c>
-      <c r="H17" s="126">
+      <c r="H17" s="122">
         <v>7.6499999999999997E-3</v>
       </c>
-      <c r="I17" s="125">
+      <c r="I17" s="121">
         <v>1.1129999999999999E-2</v>
       </c>
     </row>
@@ -7582,19 +7582,19 @@
       <c r="D18" s="77">
         <v>9.2599999999999991E-3</v>
       </c>
-      <c r="E18" s="125">
+      <c r="E18" s="121">
         <v>1.3390000000000001E-2</v>
       </c>
       <c r="F18" s="77">
         <v>2.1829999999999999E-2</v>
       </c>
-      <c r="G18" s="125">
+      <c r="G18" s="121">
         <v>3.3579999999999999E-2</v>
       </c>
-      <c r="H18" s="126">
+      <c r="H18" s="122">
         <v>1.111E-2</v>
       </c>
-      <c r="I18" s="125">
+      <c r="I18" s="121">
         <v>1.6070000000000001E-2</v>
       </c>
     </row>
@@ -7605,19 +7605,19 @@
       <c r="D19" s="77">
         <v>1.635E-2</v>
       </c>
-      <c r="E19" s="125">
+      <c r="E19" s="121">
         <v>2.316E-2</v>
       </c>
       <c r="F19" s="77">
         <v>2.9690000000000001E-2</v>
       </c>
-      <c r="G19" s="125">
+      <c r="G19" s="121">
         <v>4.2770000000000002E-2</v>
       </c>
-      <c r="H19" s="126">
+      <c r="H19" s="122">
         <v>1.9619999999999999E-2</v>
       </c>
-      <c r="I19" s="125">
+      <c r="I19" s="121">
         <v>2.7789999999999999E-2</v>
       </c>
     </row>
@@ -7628,19 +7628,19 @@
       <c r="D20" s="77">
         <v>3.007E-2</v>
       </c>
-      <c r="E20" s="125">
+      <c r="E20" s="121">
         <v>3.977E-2</v>
       </c>
       <c r="F20" s="77">
         <v>4.641E-2</v>
       </c>
-      <c r="G20" s="125">
+      <c r="G20" s="121">
         <v>6.2719999999999998E-2</v>
       </c>
-      <c r="H20" s="126">
+      <c r="H20" s="122">
         <v>3.6089999999999997E-2</v>
       </c>
-      <c r="I20" s="125">
+      <c r="I20" s="121">
         <v>4.7730000000000002E-2</v>
       </c>
     </row>
@@ -7651,19 +7651,19 @@
       <c r="D21" s="77">
         <v>5.4179999999999999E-2</v>
       </c>
-      <c r="E21" s="125">
+      <c r="E21" s="121">
         <v>7.1220000000000006E-2</v>
       </c>
       <c r="F21" s="77">
         <v>7.8469999999999998E-2</v>
       </c>
-      <c r="G21" s="125">
+      <c r="G21" s="121">
         <v>9.7930000000000003E-2</v>
       </c>
-      <c r="H21" s="126">
+      <c r="H21" s="122">
         <v>6.5009999999999998E-2</v>
       </c>
-      <c r="I21" s="125">
+      <c r="I21" s="121">
         <v>8.5470000000000004E-2</v>
       </c>
     </row>
@@ -7674,19 +7674,19 @@
       <c r="D22" s="77">
         <v>0.10088999999999999</v>
       </c>
-      <c r="E22" s="125">
+      <c r="E22" s="121">
         <v>0.13044</v>
       </c>
       <c r="F22" s="77">
         <v>0.13220000000000001</v>
       </c>
-      <c r="G22" s="125">
+      <c r="G22" s="121">
         <v>0.14616000000000001</v>
       </c>
-      <c r="H22" s="126">
+      <c r="H22" s="122">
         <v>0.11098</v>
       </c>
-      <c r="I22" s="125">
+      <c r="I22" s="121">
         <v>0.14348</v>
       </c>
     </row>
@@ -7697,19 +7697,19 @@
       <c r="D23" s="77">
         <v>0.17698</v>
       </c>
-      <c r="E23" s="125">
+      <c r="E23" s="121">
         <v>0.21657999999999999</v>
       </c>
       <c r="F23" s="77">
         <v>0.21015</v>
       </c>
-      <c r="G23" s="125">
+      <c r="G23" s="121">
         <v>0.21657999999999999</v>
       </c>
-      <c r="H23" s="126">
+      <c r="H23" s="122">
         <v>0.17698</v>
       </c>
-      <c r="I23" s="125">
+      <c r="I23" s="121">
         <v>0.21657999999999999</v>
       </c>
     </row>
@@ -7720,19 +7720,19 @@
       <c r="D24" s="77">
         <v>0.28150999999999998</v>
       </c>
-      <c r="E24" s="125">
+      <c r="E24" s="121">
         <v>0.32222000000000001</v>
       </c>
       <c r="F24" s="77">
         <v>0.32225999999999999</v>
       </c>
-      <c r="G24" s="125">
+      <c r="G24" s="121">
         <v>0.32222000000000001</v>
       </c>
-      <c r="H24" s="126">
+      <c r="H24" s="122">
         <v>0.28150999999999998</v>
       </c>
-      <c r="I24" s="125">
+      <c r="I24" s="121">
         <v>0.32222000000000001</v>
       </c>
     </row>
@@ -7743,19 +7743,19 @@
       <c r="D25" s="77">
         <v>0.43491000000000002</v>
       </c>
-      <c r="E25" s="125">
+      <c r="E25" s="121">
         <v>0.46690999999999999</v>
       </c>
       <c r="F25" s="77">
         <v>0.43491000000000002</v>
       </c>
-      <c r="G25" s="125">
+      <c r="G25" s="121">
         <v>0.46690999999999999</v>
       </c>
-      <c r="H25" s="126">
+      <c r="H25" s="122">
         <v>0.43491000000000002</v>
       </c>
-      <c r="I25" s="125">
+      <c r="I25" s="121">
         <v>0.46690999999999999</v>
       </c>
     </row>
@@ -7766,19 +7766,19 @@
       <c r="D26" s="77">
         <v>1</v>
       </c>
-      <c r="E26" s="125">
+      <c r="E26" s="121">
         <v>1</v>
       </c>
       <c r="F26" s="77">
         <v>1</v>
       </c>
-      <c r="G26" s="125">
+      <c r="G26" s="121">
         <v>1</v>
       </c>
-      <c r="H26" s="126">
+      <c r="H26" s="122">
         <v>1</v>
       </c>
-      <c r="I26" s="125">
+      <c r="I26" s="121">
         <v>1</v>
       </c>
     </row>
@@ -7837,63 +7837,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131" t="s">
+      <c r="D5" s="127"/>
+      <c r="E5" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131" t="s">
+      <c r="F5" s="127"/>
+      <c r="G5" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="129" t="s">
+      <c r="E6" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="129" t="s">
+      <c r="G6" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H6" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="128" t="s">
+      <c r="I6" s="124" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="122" t="s">
+      <c r="I7" s="118" t="s">
         <v>84</v>
       </c>
     </row>
@@ -7901,22 +7901,22 @@
       <c r="C8" s="100">
         <v>20</v>
       </c>
-      <c r="D8" s="125">
+      <c r="D8" s="121">
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="E8" s="105">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F8" s="121">
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="G8" s="105">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="H8" s="126">
+      <c r="H8" s="122">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="I8" s="125">
+      <c r="I8" s="121">
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
@@ -7924,22 +7924,22 @@
       <c r="C9" s="100">
         <v>25</v>
       </c>
-      <c r="D9" s="125">
+      <c r="D9" s="121">
         <v>1.2999999999999999E-4</v>
       </c>
       <c r="E9" s="105">
         <v>3.5E-4</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9" s="121">
         <v>1.2999999999999999E-4</v>
       </c>
       <c r="G9" s="105">
         <v>3.5E-4</v>
       </c>
-      <c r="H9" s="126">
+      <c r="H9" s="122">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="I9" s="125">
+      <c r="I9" s="121">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
@@ -7947,22 +7947,22 @@
       <c r="C10" s="100">
         <v>30</v>
       </c>
-      <c r="D10" s="125">
+      <c r="D10" s="121">
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="E10" s="105">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F10" s="121">
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="G10" s="105">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="H10" s="126">
+      <c r="H10" s="122">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="I10" s="125">
+      <c r="I10" s="121">
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
@@ -7970,22 +7970,22 @@
       <c r="C11" s="100">
         <v>35</v>
       </c>
-      <c r="D11" s="125">
+      <c r="D11" s="121">
         <v>2.7999999999999998E-4</v>
       </c>
       <c r="E11" s="105">
         <v>5.2999999999999998E-4</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="121">
         <v>2.7999999999999998E-4</v>
       </c>
       <c r="G11" s="105">
         <v>5.2999999999999998E-4</v>
       </c>
-      <c r="H11" s="126">
+      <c r="H11" s="122">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="I11" s="125">
+      <c r="I11" s="121">
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
@@ -7993,22 +7993,22 @@
       <c r="C12" s="100">
         <v>40</v>
       </c>
-      <c r="D12" s="125">
+      <c r="D12" s="121">
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="E12" s="105">
         <v>6.8999999999999997E-4</v>
       </c>
-      <c r="F12" s="125">
+      <c r="F12" s="121">
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="G12" s="105">
         <v>6.8999999999999997E-4</v>
       </c>
-      <c r="H12" s="126">
+      <c r="H12" s="122">
         <v>1E-4</v>
       </c>
-      <c r="I12" s="125">
+      <c r="I12" s="121">
         <v>1E-4</v>
       </c>
     </row>
@@ -8016,22 +8016,22 @@
       <c r="C13" s="100">
         <v>45</v>
       </c>
-      <c r="D13" s="125">
+      <c r="D13" s="121">
         <v>5.9000000000000003E-4</v>
       </c>
       <c r="E13" s="105">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13" s="121">
         <v>5.9000000000000003E-4</v>
       </c>
       <c r="G13" s="105">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H13" s="126">
+      <c r="H13" s="122">
         <v>1.2E-4</v>
       </c>
-      <c r="I13" s="125">
+      <c r="I13" s="121">
         <v>1.2E-4</v>
       </c>
     </row>
@@ -8039,22 +8039,22 @@
       <c r="C14" s="100">
         <v>50</v>
       </c>
-      <c r="D14" s="125">
+      <c r="D14" s="121">
         <v>3.9300000000000003E-3</v>
       </c>
       <c r="E14" s="105">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="F14" s="125">
+      <c r="F14" s="121">
         <v>1.2290000000000001E-2</v>
       </c>
       <c r="G14" s="105">
         <v>1.4E-2</v>
       </c>
-      <c r="H14" s="126">
+      <c r="H14" s="122">
         <v>3.9300000000000003E-3</v>
       </c>
-      <c r="I14" s="125">
+      <c r="I14" s="121">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
@@ -8062,22 +8062,22 @@
       <c r="C15" s="100">
         <v>55</v>
       </c>
-      <c r="D15" s="125">
+      <c r="D15" s="121">
         <v>4.5300000000000002E-3</v>
       </c>
       <c r="E15" s="105">
         <v>5.0800000000000003E-3</v>
       </c>
-      <c r="F15" s="125">
+      <c r="F15" s="121">
         <v>1.303E-2</v>
       </c>
       <c r="G15" s="105">
         <v>1.874E-2</v>
       </c>
-      <c r="H15" s="126">
+      <c r="H15" s="122">
         <v>4.5300000000000002E-3</v>
       </c>
-      <c r="I15" s="125">
+      <c r="I15" s="121">
         <v>5.0800000000000003E-3</v>
       </c>
     </row>
@@ -8085,22 +8085,22 @@
       <c r="C16" s="100">
         <v>60</v>
       </c>
-      <c r="D16" s="125">
+      <c r="D16" s="121">
         <v>5.1700000000000001E-3</v>
       </c>
       <c r="E16" s="105">
         <v>7.4900000000000001E-3</v>
       </c>
-      <c r="F16" s="125">
+      <c r="F16" s="121">
         <v>1.524E-2</v>
       </c>
       <c r="G16" s="105">
         <v>2.4150000000000001E-2</v>
       </c>
-      <c r="H16" s="126">
+      <c r="H16" s="122">
         <v>5.1700000000000001E-3</v>
       </c>
-      <c r="I16" s="125">
+      <c r="I16" s="121">
         <v>7.4900000000000001E-3</v>
       </c>
     </row>
@@ -8108,22 +8108,22 @@
       <c r="C17" s="100">
         <v>65</v>
       </c>
-      <c r="D17" s="125">
+      <c r="D17" s="121">
         <v>7.0600000000000003E-3</v>
       </c>
       <c r="E17" s="105">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="F17" s="125">
+      <c r="F17" s="121">
         <v>1.9460000000000002E-2</v>
       </c>
       <c r="G17" s="105">
         <v>3.006E-2</v>
       </c>
-      <c r="H17" s="126">
+      <c r="H17" s="122">
         <v>8.4700000000000001E-3</v>
       </c>
-      <c r="I17" s="125">
+      <c r="I17" s="121">
         <v>1.2239999999999999E-2</v>
       </c>
     </row>
@@ -8131,22 +8131,22 @@
       <c r="C18" s="100">
         <v>70</v>
       </c>
-      <c r="D18" s="125">
+      <c r="D18" s="121">
         <v>1.06E-2</v>
       </c>
       <c r="E18" s="105">
         <v>1.503E-2</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G18" s="105">
         <v>3.7690000000000001E-2</v>
       </c>
-      <c r="H18" s="126">
+      <c r="H18" s="122">
         <v>1.272E-2</v>
       </c>
-      <c r="I18" s="125">
+      <c r="I18" s="121">
         <v>1.8030000000000001E-2</v>
       </c>
     </row>
@@ -8154,22 +8154,22 @@
       <c r="C19" s="100">
         <v>75</v>
       </c>
-      <c r="D19" s="125">
+      <c r="D19" s="121">
         <v>1.9040000000000001E-2</v>
       </c>
       <c r="E19" s="105">
         <v>2.6689999999999998E-2</v>
       </c>
-      <c r="F19" s="125">
+      <c r="F19" s="121">
         <v>3.458E-2</v>
       </c>
       <c r="G19" s="105">
         <v>4.929E-2</v>
       </c>
-      <c r="H19" s="126">
+      <c r="H19" s="122">
         <v>2.2849999999999999E-2</v>
       </c>
-      <c r="I19" s="125">
+      <c r="I19" s="121">
         <v>3.2030000000000003E-2</v>
       </c>
     </row>
@@ -8177,22 +8177,22 @@
       <c r="C20" s="100">
         <v>80</v>
       </c>
-      <c r="D20" s="125">
+      <c r="D20" s="121">
         <v>3.4860000000000002E-2</v>
       </c>
       <c r="E20" s="105">
         <v>4.6390000000000001E-2</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="121">
         <v>5.3789999999999998E-2</v>
       </c>
       <c r="G20" s="105">
         <v>7.3160000000000003E-2</v>
       </c>
-      <c r="H20" s="126">
+      <c r="H20" s="122">
         <v>4.1829999999999999E-2</v>
       </c>
-      <c r="I20" s="125">
+      <c r="I20" s="121">
         <v>5.5669999999999997E-2</v>
       </c>
     </row>
@@ -8200,22 +8200,22 @@
       <c r="C21" s="100">
         <v>85</v>
       </c>
-      <c r="D21" s="125">
+      <c r="D21" s="121">
         <v>6.1960000000000001E-2</v>
       </c>
       <c r="E21" s="105">
         <v>8.276E-2</v>
       </c>
-      <c r="F21" s="125">
+      <c r="F21" s="121">
         <v>8.9730000000000004E-2</v>
       </c>
       <c r="G21" s="105">
         <v>0.11379</v>
       </c>
-      <c r="H21" s="126">
+      <c r="H21" s="122">
         <v>7.4349999999999999E-2</v>
       </c>
-      <c r="I21" s="125">
+      <c r="I21" s="121">
         <v>9.9309999999999996E-2</v>
       </c>
     </row>
@@ -8223,22 +8223,22 @@
       <c r="C22" s="100">
         <v>90</v>
       </c>
-      <c r="D22" s="125">
+      <c r="D22" s="121">
         <v>0.11382</v>
       </c>
       <c r="E22" s="105">
         <v>0.14938000000000001</v>
       </c>
-      <c r="F22" s="125">
+      <c r="F22" s="121">
         <v>0.14915</v>
       </c>
       <c r="G22" s="105">
         <v>0.16738</v>
       </c>
-      <c r="H22" s="126">
+      <c r="H22" s="122">
         <v>0.12520999999999999</v>
       </c>
-      <c r="I22" s="125">
+      <c r="I22" s="121">
         <v>0.16431000000000001</v>
       </c>
     </row>
@@ -8246,22 +8246,22 @@
       <c r="C23" s="100">
         <v>95</v>
       </c>
-      <c r="D23" s="125">
+      <c r="D23" s="121">
         <v>0.19797999999999999</v>
       </c>
       <c r="E23" s="105">
         <v>0.24534</v>
       </c>
-      <c r="F23" s="125">
+      <c r="F23" s="121">
         <v>0.23508999999999999</v>
       </c>
       <c r="G23" s="105">
         <v>0.24534</v>
       </c>
-      <c r="H23" s="126">
+      <c r="H23" s="122">
         <v>0.19797999999999999</v>
       </c>
-      <c r="I23" s="125">
+      <c r="I23" s="121">
         <v>0.24534</v>
       </c>
     </row>
@@ -8269,22 +8269,22 @@
       <c r="C24" s="100">
         <v>100</v>
       </c>
-      <c r="D24" s="125">
+      <c r="D24" s="121">
         <v>0.30618000000000001</v>
       </c>
       <c r="E24" s="105">
         <v>0.35367999999999999</v>
       </c>
-      <c r="F24" s="125">
+      <c r="F24" s="121">
         <v>0.35050999999999999</v>
       </c>
       <c r="G24" s="105">
         <v>0.35367999999999999</v>
       </c>
-      <c r="H24" s="126">
+      <c r="H24" s="122">
         <v>0.30618000000000001</v>
       </c>
-      <c r="I24" s="125">
+      <c r="I24" s="121">
         <v>0.35367999999999999</v>
       </c>
     </row>
@@ -8292,22 +8292,22 @@
       <c r="C25" s="100">
         <v>105</v>
       </c>
-      <c r="D25" s="125">
+      <c r="D25" s="121">
         <v>0.46</v>
       </c>
       <c r="E25" s="105">
         <v>0.49680000000000002</v>
       </c>
-      <c r="F25" s="125">
+      <c r="F25" s="121">
         <v>0.46</v>
       </c>
       <c r="G25" s="105">
         <v>0.49680000000000002</v>
       </c>
-      <c r="H25" s="126">
+      <c r="H25" s="122">
         <v>0.46</v>
       </c>
-      <c r="I25" s="125">
+      <c r="I25" s="121">
         <v>0.49680000000000002</v>
       </c>
     </row>
@@ -8315,22 +8315,22 @@
       <c r="C26" s="100">
         <v>110</v>
       </c>
-      <c r="D26" s="125">
+      <c r="D26" s="121">
         <v>1</v>
       </c>
       <c r="E26" s="105">
         <v>1</v>
       </c>
-      <c r="F26" s="125">
+      <c r="F26" s="121">
         <v>1</v>
       </c>
       <c r="G26" s="105">
         <v>1</v>
       </c>
-      <c r="H26" s="126">
+      <c r="H26" s="122">
         <v>1</v>
       </c>
-      <c r="I26" s="125">
+      <c r="I26" s="121">
         <v>1</v>
       </c>
     </row>
@@ -8347,7 +8347,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8392,17 +8392,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="113" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="82">
@@ -8419,13 +8419,13 @@
       <c r="C8" s="84">
         <v>0</v>
       </c>
-      <c r="D8" s="132">
+      <c r="D8" s="128">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E8" s="133">
+      <c r="E8" s="129">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F8" s="132">
+      <c r="F8" s="128">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
@@ -8433,13 +8433,13 @@
       <c r="C9" s="84">
         <v>3</v>
       </c>
-      <c r="D9" s="132">
+      <c r="D9" s="128">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="E9" s="133">
+      <c r="E9" s="129">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F9" s="132">
+      <c r="F9" s="128">
         <v>3.1E-2</v>
       </c>
     </row>
@@ -8447,13 +8447,13 @@
       <c r="C10" s="84">
         <v>5</v>
       </c>
-      <c r="D10" s="132">
+      <c r="D10" s="128">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E10" s="133">
+      <c r="E10" s="129">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F10" s="132">
+      <c r="F10" s="128">
         <v>2.4E-2</v>
       </c>
     </row>
@@ -8461,13 +8461,13 @@
       <c r="C11" s="84">
         <v>10</v>
       </c>
-      <c r="D11" s="132">
+      <c r="D11" s="128">
         <v>2.3E-2</v>
       </c>
-      <c r="E11" s="133">
+      <c r="E11" s="129">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F11" s="132">
+      <c r="F11" s="128">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -8475,13 +8475,13 @@
       <c r="C12" s="84">
         <v>15</v>
       </c>
-      <c r="D12" s="132">
+      <c r="D12" s="128">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E12" s="133">
+      <c r="E12" s="129">
         <v>1.2E-2</v>
       </c>
-      <c r="F12" s="132">
+      <c r="F12" s="128">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -8489,13 +8489,13 @@
       <c r="C13" s="84">
         <v>20</v>
       </c>
-      <c r="D13" s="132">
+      <c r="D13" s="128">
         <v>0.01</v>
       </c>
-      <c r="E13" s="133">
+      <c r="E13" s="129">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F13" s="132">
+      <c r="F13" s="128">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -8503,13 +8503,13 @@
       <c r="C14" s="84">
         <v>25</v>
       </c>
-      <c r="D14" s="132">
+      <c r="D14" s="128">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E14" s="133">
+      <c r="E14" s="129">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F14" s="132">
+      <c r="F14" s="128">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -8517,13 +8517,13 @@
       <c r="C15" s="84">
         <v>30</v>
       </c>
-      <c r="D15" s="132">
+      <c r="D15" s="128">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E15" s="133">
+      <c r="E15" s="129">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F15" s="132">
+      <c r="F15" s="128">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E13B0FF-EE7F-4631-B03A-986AB98D7CAE}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -8580,17 +8580,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="113" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="82">
@@ -8727,7 +8727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A033430-32EF-4F63-A6D3-3856EB819613}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -8780,16 +8780,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="118" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8797,13 +8797,13 @@
       <c r="C7" s="84">
         <v>0</v>
       </c>
-      <c r="D7" s="132">
+      <c r="D7" s="128">
         <v>0.05</v>
       </c>
-      <c r="E7" s="133">
+      <c r="E7" s="129">
         <v>0.14699999999999999</v>
       </c>
-      <c r="F7" s="132">
+      <c r="F7" s="128">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
@@ -8811,13 +8811,13 @@
       <c r="C8" s="84">
         <v>3</v>
       </c>
-      <c r="D8" s="132">
+      <c r="D8" s="128">
         <v>3.1E-2</v>
       </c>
-      <c r="E8" s="133">
+      <c r="E8" s="129">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F8" s="132">
+      <c r="F8" s="128">
         <v>0.04</v>
       </c>
     </row>
@@ -8825,13 +8825,13 @@
       <c r="C9" s="84">
         <v>5</v>
       </c>
-      <c r="D9" s="132">
+      <c r="D9" s="128">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E9" s="133">
+      <c r="E9" s="129">
         <v>0.04</v>
       </c>
-      <c r="F9" s="132">
+      <c r="F9" s="128">
         <v>2.4E-2</v>
       </c>
     </row>
@@ -8839,13 +8839,13 @@
       <c r="C10" s="84">
         <v>10</v>
       </c>
-      <c r="D10" s="132">
+      <c r="D10" s="128">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E10" s="133">
+      <c r="E10" s="129">
         <v>1.2E-2</v>
       </c>
-      <c r="F10" s="132">
+      <c r="F10" s="128">
         <v>0.01</v>
       </c>
     </row>
@@ -8853,13 +8853,13 @@
       <c r="C11" s="84">
         <v>15</v>
       </c>
-      <c r="D11" s="132">
+      <c r="D11" s="128">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E11" s="133">
+      <c r="E11" s="129">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F11" s="132">
+      <c r="F11" s="128">
         <v>0.01</v>
       </c>
     </row>
@@ -8867,13 +8867,13 @@
       <c r="C12" s="84">
         <v>20</v>
       </c>
-      <c r="D12" s="132">
+      <c r="D12" s="128">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E12" s="133">
+      <c r="E12" s="129">
         <v>1.4E-2</v>
       </c>
-      <c r="F12" s="132">
+      <c r="F12" s="128">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -8881,13 +8881,13 @@
       <c r="C13" s="84">
         <v>25</v>
       </c>
-      <c r="D13" s="132">
+      <c r="D13" s="128">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E13" s="133">
+      <c r="E13" s="129">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F13" s="132">
+      <c r="F13" s="128">
         <v>0.02</v>
       </c>
     </row>
@@ -8895,13 +8895,13 @@
       <c r="C14" s="84">
         <v>30</v>
       </c>
-      <c r="D14" s="132">
+      <c r="D14" s="128">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E14" s="133">
+      <c r="E14" s="129">
         <v>0.01</v>
       </c>
-      <c r="F14" s="132">
+      <c r="F14" s="128">
         <v>0.01</v>
       </c>
     </row>
@@ -8953,21 +8953,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="19">
@@ -9720,21 +9720,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="25">
@@ -10487,21 +10487,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="31">
@@ -11254,21 +11254,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="37">
@@ -12021,21 +12021,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="43">
@@ -12658,21 +12658,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="49">
@@ -13295,21 +13295,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="55">

--- a/inputs/data_raw/Data_CalPERS_Decrements_ES2017.xlsx
+++ b/inputs/data_raw/Data_CalPERS_Decrements_ES2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_CalPERS\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3FE71F-C7F0-44FB-B585-B4913E712208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EB5569-2E1C-41D2-87B1-A2BCEEA24472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="servRet_misc_classic" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,18 @@
     <sheet name="salScale_merit_inds" sheetId="26" r:id="rId26"/>
     <sheet name="salScale_merit_other" sheetId="27" r:id="rId27"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2288,7 +2296,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6817,7 +6825,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7246,8 +7254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B260100-58CD-431E-8155-DE70D775B105}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7795,7 +7803,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8347,7 +8355,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8539,8 +8547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E13B0FF-EE7F-4631-B03A-986AB98D7CAE}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inputs/data_raw/Data_CalPERS_Decrements_ES2017.xlsx
+++ b/inputs/data_raw/Data_CalPERS_Decrements_ES2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_CalPERS\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EB5569-2E1C-41D2-87B1-A2BCEEA24472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0F3D9B-7C02-413E-A50D-E9D9D6CF914E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="servRet_misc_classic" sheetId="2" r:id="rId1"/>
@@ -628,7 +628,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2299,18 +2299,18 @@
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="H5" s="134"/>
       <c r="I5" s="134"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="3">
         <v>50</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="3">
         <v>51</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="3">
         <v>52</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="3">
         <v>53</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="3">
         <v>54</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="3">
         <v>55</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="3">
         <v>56</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="3">
         <v>57</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="3">
         <v>58</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="3">
         <v>59</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="3">
         <v>60</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="3">
         <v>61</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="3">
         <v>62</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="3">
         <v>63</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="3">
         <v>64</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="3">
         <v>65</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="3">
         <v>66</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="3">
         <v>67</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="3">
         <v>68</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="3">
         <v>69</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="3">
         <v>70</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="3">
         <v>71</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="3">
         <v>72</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="3">
         <v>73</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" s="3">
         <v>74</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="2">
         <v>75</v>
       </c>
@@ -3070,14 +3070,14 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="H5" s="134"/>
       <c r="I5" s="134"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="65">
         <v>50</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="65">
         <v>51</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="65">
         <v>52</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="65">
         <v>53</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="65">
         <v>54</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="65">
         <v>55</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="65">
         <v>56</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="65">
         <v>57</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="65">
         <v>58</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="65">
         <v>59</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="64">
         <v>60</v>
       </c>
@@ -3447,17 +3447,17 @@
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="H5" s="134"/>
       <c r="I5" s="134"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="59">
         <v>50</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="59">
         <v>51</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="59">
         <v>52</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="59">
         <v>53</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="59">
         <v>54</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="59">
         <v>55</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="59">
         <v>56</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="59">
         <v>57</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="59">
         <v>58</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="59">
         <v>59</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="58">
         <v>60</v>
       </c>
@@ -3824,22 +3824,22 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="108" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="9"/>
       <c r="C5" s="109"/>
       <c r="D5" s="70"/>
@@ -3876,7 +3876,7 @@
       <c r="I5" s="71"/>
       <c r="J5" s="71"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="9"/>
       <c r="C6" s="109"/>
       <c r="D6" s="73">
@@ -3901,7 +3901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="75" t="s">
         <v>4</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="36">
       <c r="B8" s="76" t="s">
         <v>5</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>2.5600000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="24">
       <c r="B9" s="79" t="s">
         <v>6</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="24">
       <c r="B10" s="76" t="s">
         <v>7</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>2.5600000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="24">
       <c r="B11" s="80" t="s">
         <v>8</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="80" t="s">
         <v>9</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>7.7099999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="80" t="s">
         <v>10</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>4.5900000000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="80" t="s">
         <v>11</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>2.33E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="80" t="s">
         <v>12</v>
       </c>
@@ -4176,17 +4176,17 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="9"/>
       <c r="C5" s="107"/>
       <c r="D5" s="70"/>
@@ -4223,7 +4223,7 @@
       <c r="I5" s="71"/>
       <c r="J5" s="71"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="9"/>
       <c r="C6" s="107"/>
       <c r="D6" s="73">
@@ -4248,7 +4248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="75" t="s">
         <v>4</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="79" t="s">
         <v>13</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>5.8E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="79" t="s">
         <v>14</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>1.205E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="79" t="s">
         <v>15</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>5.4739999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="80" t="s">
         <v>12</v>
       </c>
@@ -4410,17 +4410,17 @@
       <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" s="112" t="s">
         <v>17</v>
       </c>
@@ -4455,7 +4455,7 @@
       <c r="E5" s="136"/>
       <c r="F5" s="136"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6" s="112"/>
       <c r="C6" s="113" t="s">
         <v>62</v>
@@ -4470,7 +4470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" s="114">
         <v>0</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>0.12920000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="C8" s="114">
         <v>5</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" s="114">
         <v>10</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" s="114">
         <v>15</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" s="114">
         <v>20</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" s="114">
         <v>25</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" s="114">
         <v>30</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" s="114">
         <v>35</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" s="114">
         <v>40</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" s="114">
         <v>45</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6">
       <c r="C17" s="114">
         <v>50</v>
       </c>
@@ -4644,18 +4644,18 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="C5" s="113" t="s">
         <v>17</v>
       </c>
@@ -4689,7 +4689,7 @@
       <c r="E5" s="136"/>
       <c r="F5" s="136"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" s="113" t="s">
         <v>62</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" s="84">
         <v>0</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>0.1244</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="C8" s="84">
         <v>5</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0.1113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" s="84">
         <v>10</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>9.8299999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" s="84">
         <v>15</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>8.5199999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" s="84">
         <v>20</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>7.22E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" s="84">
         <v>25</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>5.91E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" s="84">
         <v>30</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" s="84">
         <v>35</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" s="84">
         <v>40</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>4.3900000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" s="84">
         <v>45</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6">
       <c r="C17" s="84">
         <v>50</v>
       </c>
@@ -4877,15 +4877,15 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="C5" s="87" t="s">
         <v>17</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="C6" s="104" t="s">
         <v>62</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="C7" s="84">
         <v>0</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="C8" s="84">
         <v>5</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="C9" s="84">
         <v>10</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="C10" s="84">
         <v>15</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="C11" s="84">
         <v>20</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="C12" s="84">
         <v>25</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="C13" s="84">
         <v>30</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="C14" s="84">
         <v>35</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="C15" s="84">
         <v>40</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="C16" s="84">
         <v>45</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7">
       <c r="C17" s="84">
         <v>50</v>
       </c>
@@ -5147,14 +5147,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="C5" s="112" t="s">
         <v>17</v>
       </c>
@@ -5188,7 +5188,7 @@
       <c r="E5" s="136"/>
       <c r="F5" s="136"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" s="112" t="s">
         <v>62</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" s="114">
         <v>0</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="C8" s="114">
         <v>5</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" s="114">
         <v>10</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" s="114">
         <v>15</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" s="114">
         <v>20</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" s="114">
         <v>25</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" s="114">
         <v>30</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" s="114">
         <v>35</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" s="114">
         <v>40</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" s="114">
         <v>45</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6">
       <c r="C17" s="114">
         <v>50</v>
       </c>
@@ -5375,15 +5375,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="C5" s="113" t="s">
         <v>17</v>
       </c>
@@ -5417,7 +5417,7 @@
       <c r="E5" s="136"/>
       <c r="F5" s="136"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" s="113" t="s">
         <v>62</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" s="84">
         <v>0</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="C8" s="84">
         <v>5</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" s="84">
         <v>10</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" s="84">
         <v>15</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" s="84">
         <v>20</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" s="84">
         <v>25</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" s="84">
         <v>30</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" s="84">
         <v>35</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" s="84">
         <v>40</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" s="84">
         <v>45</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6">
       <c r="C17" s="84">
         <v>50</v>
       </c>
@@ -5604,14 +5604,14 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="C5" s="112" t="s">
         <v>17</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="E5" s="136"/>
       <c r="F5" s="136"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" s="112" t="s">
         <v>62</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" s="114">
         <v>0</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="C8" s="114">
         <v>5</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>3.1099999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" s="114">
         <v>10</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" s="114">
         <v>15</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" s="114">
         <v>20</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" s="114">
         <v>25</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" s="114">
         <v>30</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" s="114">
         <v>35</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" s="114">
         <v>40</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" s="114">
         <v>45</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6">
       <c r="C17" s="114">
         <v>50</v>
       </c>
@@ -5832,14 +5832,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
@@ -5877,7 +5877,7 @@
       <c r="H5" s="134"/>
       <c r="I5" s="134"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="11">
         <v>50</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="11">
         <v>51</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="11">
         <v>52</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="11">
         <v>53</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="11">
         <v>54</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="11">
         <v>55</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="11">
         <v>56</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="11">
         <v>57</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="11">
         <v>58</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="11">
         <v>59</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="11">
         <v>60</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="11">
         <v>61</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="11">
         <v>62</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="11">
         <v>63</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="11">
         <v>64</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="11">
         <v>65</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="11">
         <v>66</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="11">
         <v>67</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="11">
         <v>68</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="11">
         <v>69</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="11">
         <v>70</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="11">
         <v>71</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="11">
         <v>72</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="11">
         <v>73</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" s="11">
         <v>74</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="10">
         <v>75</v>
       </c>
@@ -6599,14 +6599,14 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="C5" s="119" t="s">
         <v>17</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" s="119" t="s">
         <v>62</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" s="114">
         <v>0</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="C8" s="114">
         <v>5</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" s="114">
         <v>10</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" s="114">
         <v>15</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" s="114">
         <v>20</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" s="114">
         <v>25</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" s="114">
         <v>30</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" s="114">
         <v>35</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" s="114">
         <v>40</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" s="114">
         <v>45</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6">
       <c r="C17" s="114">
         <v>50</v>
       </c>
@@ -6828,17 +6828,17 @@
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="C5" s="88" t="s">
         <v>3</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="24">
       <c r="C6" s="120" t="s">
         <v>48</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="C7" s="84">
         <v>20</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>2.2000000000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="C8" s="84">
         <v>25</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>2.9E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="C9" s="84">
         <v>30</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>3.8000000000000002E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="C10" s="84">
         <v>35</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>4.8999999999999998E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="84">
         <v>40</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>6.4000000000000005E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="C12" s="84">
         <v>45</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="C13" s="84">
         <v>50</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>1.16E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="C14" s="84">
         <v>55</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>1.72E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="84">
         <v>60</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>2.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="C16" s="84">
         <v>65</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>3.63E-3</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5">
       <c r="C17" s="84">
         <v>70</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>6.2300000000000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" s="84">
         <v>75</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>1.057E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19" s="84">
         <v>80</v>
       </c>
@@ -7043,17 +7043,17 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="C5" s="88" t="s">
         <v>3</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="24">
       <c r="C6" s="120" t="s">
         <v>48</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="C7" s="84">
         <v>20</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="C8" s="84">
         <v>25</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="C9" s="84">
         <v>30</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="C10" s="84">
         <v>35</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="84">
         <v>40</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="C12" s="84">
         <v>45</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>1.2E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="C13" s="84">
         <v>50</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>1.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="C14" s="84">
         <v>55</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" s="84">
         <v>60</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>1.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="C16" s="84">
         <v>65</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>1.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5">
       <c r="C17" s="84">
         <v>70</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" s="84">
         <v>75</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>2.1000000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19" s="84">
         <v>80</v>
       </c>
@@ -7254,22 +7254,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B260100-58CD-431E-8155-DE70D775B105}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="D5" s="127" t="s">
         <v>26</v>
       </c>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="I5" s="127"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="88" t="s">
         <v>3</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="C7" s="120" t="s">
         <v>48</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="84">
         <v>20</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="C9" s="84">
         <v>25</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="84">
         <v>30</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="C11" s="84">
         <v>35</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="84">
         <v>40</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="C13" s="84">
         <v>45</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>1.2E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="84">
         <v>50</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>3.7200000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="C15" s="84">
         <v>55</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>4.3699999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="84">
         <v>60</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>6.7099999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9">
       <c r="C17" s="84">
         <v>65</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>1.1129999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9">
       <c r="C18" s="84">
         <v>70</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>1.6070000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9">
       <c r="C19" s="84">
         <v>75</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>2.7789999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9">
       <c r="C20" s="84">
         <v>80</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>4.7730000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9">
       <c r="C21" s="84">
         <v>85</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>8.5470000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9">
       <c r="C22" s="84">
         <v>90</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>0.14348</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9">
       <c r="C23" s="84">
         <v>95</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>0.21657999999999999</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9">
       <c r="C24" s="84">
         <v>100</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>0.32222000000000001</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9">
       <c r="C25" s="84">
         <v>105</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>0.46690999999999999</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:9">
       <c r="C26" s="84">
         <v>110</v>
       </c>
@@ -7806,7 +7806,7 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
@@ -7814,13 +7814,13 @@
     <col min="8" max="9" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="C5" s="127" t="s">
         <v>26</v>
       </c>
@@ -7859,7 +7859,7 @@
       <c r="H5" s="127"/>
       <c r="I5" s="127"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="13.5" customHeight="1">
       <c r="C6" s="104" t="s">
         <v>3</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1">
       <c r="C7" s="120" t="s">
         <v>48</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="100">
         <v>20</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="C9" s="100">
         <v>25</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="100">
         <v>30</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="C11" s="100">
         <v>35</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="100">
         <v>40</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="C13" s="100">
         <v>45</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>1.2E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="100">
         <v>50</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="C15" s="100">
         <v>55</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>5.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="100">
         <v>60</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>7.4900000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9">
       <c r="C17" s="100">
         <v>65</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>1.2239999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9">
       <c r="C18" s="100">
         <v>70</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>1.8030000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9">
       <c r="C19" s="100">
         <v>75</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>3.2030000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9">
       <c r="C20" s="100">
         <v>80</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>5.5669999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9">
       <c r="C21" s="100">
         <v>85</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>9.9309999999999996E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9">
       <c r="C22" s="100">
         <v>90</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>0.16431000000000001</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9">
       <c r="C23" s="100">
         <v>95</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>0.24534</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9">
       <c r="C24" s="100">
         <v>100</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>0.35367999999999999</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9">
       <c r="C25" s="100">
         <v>105</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>0.49680000000000002</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:9">
       <c r="C26" s="100">
         <v>110</v>
       </c>
@@ -8358,19 +8358,19 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -8394,12 +8394,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="C5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" s="113" t="s">
         <v>17</v>
       </c>
@@ -8409,7 +8409,7 @@
       <c r="E6" s="131"/>
       <c r="F6" s="131"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" s="113" t="s">
         <v>62</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="C8" s="84">
         <v>0</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" s="84">
         <v>3</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" s="84">
         <v>5</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" s="84">
         <v>10</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" s="84">
         <v>15</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" s="84">
         <v>20</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" s="84">
         <v>25</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" s="84">
         <v>30</v>
       </c>
@@ -8551,14 +8551,14 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -8582,12 +8582,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="D5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" s="113" t="s">
         <v>17</v>
       </c>
@@ -8597,7 +8597,7 @@
       <c r="E6" s="131"/>
       <c r="F6" s="131"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" s="113" t="s">
         <v>62</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="C8" s="100">
         <v>0</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" s="100">
         <v>3</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" s="100">
         <v>5</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" s="100">
         <v>10</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" s="100">
         <v>15</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" s="100">
         <v>20</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" s="100">
         <v>25</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" s="100">
         <v>30</v>
       </c>
@@ -8739,17 +8739,17 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24">
       <c r="C5" s="88" t="s">
         <v>17</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" s="120" t="s">
         <v>62</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" s="84">
         <v>0</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="C8" s="84">
         <v>3</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" s="84">
         <v>5</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" s="84">
         <v>10</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" s="84">
         <v>15</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" s="84">
         <v>20</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" s="84">
         <v>25</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" s="84">
         <v>30</v>
       </c>
@@ -8929,14 +8929,14 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
@@ -8974,7 +8974,7 @@
       <c r="H5" s="134"/>
       <c r="I5" s="134"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="17">
         <v>50</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="17">
         <v>51</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="17">
         <v>52</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="17">
         <v>53</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="17">
         <v>54</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="17">
         <v>55</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="17">
         <v>56</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="17">
         <v>57</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="17">
         <v>58</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="17">
         <v>59</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="17">
         <v>60</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="17">
         <v>61</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="17">
         <v>62</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="17">
         <v>63</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="17">
         <v>64</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="17">
         <v>65</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>0.51100000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="17">
         <v>66</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="17">
         <v>67</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="17">
         <v>68</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="17">
         <v>69</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="17">
         <v>70</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>0.61099999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="17">
         <v>71</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="17">
         <v>72</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="17">
         <v>73</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" s="17">
         <v>74</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="16">
         <v>75</v>
       </c>
@@ -9696,14 +9696,14 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
@@ -9741,7 +9741,7 @@
       <c r="H5" s="134"/>
       <c r="I5" s="134"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="23">
         <v>50</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="23">
         <v>51</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="23">
         <v>52</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="23">
         <v>53</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="23">
         <v>54</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="23">
         <v>55</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="23">
         <v>56</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="23">
         <v>57</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="23">
         <v>58</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="23">
         <v>59</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="23">
         <v>60</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="23">
         <v>61</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="23">
         <v>62</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="23">
         <v>63</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="23">
         <v>64</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="23">
         <v>65</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="23">
         <v>66</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="23">
         <v>67</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="23">
         <v>68</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="23">
         <v>69</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="23">
         <v>70</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>0.61099999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="23">
         <v>71</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="23">
         <v>72</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="23">
         <v>73</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" s="23">
         <v>74</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="22">
         <v>75</v>
       </c>
@@ -10463,14 +10463,14 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
@@ -10508,7 +10508,7 @@
       <c r="H5" s="134"/>
       <c r="I5" s="134"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="29">
         <v>50</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="29">
         <v>51</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="29">
         <v>52</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="29">
         <v>53</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="29">
         <v>54</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="29">
         <v>55</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="29">
         <v>56</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="29">
         <v>57</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="29">
         <v>58</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="29">
         <v>59</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="29">
         <v>60</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="29">
         <v>61</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="29">
         <v>62</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="29">
         <v>63</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="29">
         <v>64</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="29">
         <v>65</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="29">
         <v>66</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="29">
         <v>67</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="29">
         <v>68</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="29">
         <v>69</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="29">
         <v>70</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="29">
         <v>71</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="29">
         <v>72</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>0.46300000000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="29">
         <v>73</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" s="29">
         <v>74</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="28">
         <v>75</v>
       </c>
@@ -11230,14 +11230,14 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
@@ -11275,7 +11275,7 @@
       <c r="H5" s="134"/>
       <c r="I5" s="134"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="35">
         <v>50</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="35">
         <v>51</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="35">
         <v>52</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="35">
         <v>53</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="35">
         <v>54</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="35">
         <v>55</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="35">
         <v>56</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="35">
         <v>57</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="35">
         <v>58</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="35">
         <v>59</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="35">
         <v>60</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="35">
         <v>61</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="35">
         <v>62</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="35">
         <v>63</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="35">
         <v>64</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="35">
         <v>65</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="35">
         <v>66</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="35">
         <v>67</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="35">
         <v>68</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="35">
         <v>69</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="35">
         <v>70</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="35">
         <v>71</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="35">
         <v>72</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>0.46300000000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="35">
         <v>73</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" s="35">
         <v>74</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="34">
         <v>75</v>
       </c>
@@ -11997,14 +11997,14 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
@@ -12042,7 +12042,7 @@
       <c r="H5" s="134"/>
       <c r="I5" s="134"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="41">
         <v>50</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>0.46700000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="41">
         <v>51</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="41">
         <v>52</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="41">
         <v>53</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="41">
         <v>54</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="41">
         <v>55</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="41">
         <v>56</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="41">
         <v>57</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="41">
         <v>58</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="41">
         <v>59</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="41">
         <v>60</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="41">
         <v>61</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="41">
         <v>62</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="41">
         <v>63</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="41">
         <v>64</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="41">
         <v>65</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="41">
         <v>66</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="41">
         <v>67</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="41">
         <v>68</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="41">
         <v>69</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="40">
         <v>70</v>
       </c>
@@ -12630,18 +12630,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0753A7C-47A3-4267-8C9F-C3C239CC43CD}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
@@ -12679,7 +12679,7 @@
       <c r="H5" s="134"/>
       <c r="I5" s="134"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="47">
         <v>50</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>0.32700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="47">
         <v>51</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="47">
         <v>52</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="47">
         <v>53</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="47">
         <v>54</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="47">
         <v>55</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="47">
         <v>56</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="47">
         <v>57</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="47">
         <v>58</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="47">
         <v>59</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="47">
         <v>60</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="47">
         <v>61</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="47">
         <v>62</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="47">
         <v>63</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="47">
         <v>64</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="47">
         <v>65</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="47">
         <v>66</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="47">
         <v>67</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="47">
         <v>68</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="47">
         <v>69</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="46">
         <v>70</v>
       </c>
@@ -13271,14 +13271,14 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="B5" s="106" t="s">
         <v>1</v>
       </c>
@@ -13316,7 +13316,7 @@
       <c r="H5" s="134"/>
       <c r="I5" s="134"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="106" t="s">
         <v>48</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="53">
         <v>50</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>0.32700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="53">
         <v>51</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="53">
         <v>52</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="53">
         <v>53</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="53">
         <v>54</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="53">
         <v>55</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="53">
         <v>56</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="53">
         <v>57</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="53">
         <v>58</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="53">
         <v>59</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="53">
         <v>60</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="53">
         <v>61</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="53">
         <v>62</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="53">
         <v>63</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="53">
         <v>64</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="53">
         <v>65</v>
       </c>
@@ -13758,7 +13758,7 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="53">
         <v>66</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="53">
         <v>67</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="53">
         <v>68</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="53">
         <v>69</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="52">
         <v>70</v>
       </c>
